--- a/utils/cold_start_problem.xlsx
+++ b/utils/cold_start_problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao.Manso\Desktop\Personal\Github\projects\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECD945D-5483-4A13-8080-D5C96439B109}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F96243-A152-4128-8372-5349740970F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32685EF-B3D5-48FB-A7C6-6F78AC24782E}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -796,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>

--- a/utils/cold_start_problem.xlsx
+++ b/utils/cold_start_problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao.Manso\Desktop\Personal\Github\projects\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F96243-A152-4128-8372-5349740970F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26A5BF-A670-41BD-B8EE-22E864CECEFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>User A</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Recommendation - K = 10</t>
+  </si>
+  <si>
+    <t>Original Input</t>
   </si>
 </sst>
 </file>
@@ -678,14 +681,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32685EF-B3D5-48FB-A7C6-6F78AC24782E}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
@@ -695,11 +699,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="17" t="s">
         <v>23</v>
       </c>
@@ -712,6 +722,9 @@
     </row>
     <row r="3" spans="2:8" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
@@ -723,6 +736,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
@@ -734,6 +750,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -742,6 +761,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
@@ -750,7 +772,9 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
@@ -759,6 +783,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -767,6 +794,9 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
@@ -775,6 +805,9 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
@@ -782,8 +815,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="14" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -796,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
